--- a/wordle game/wordle_project/word/beyond.xlsx
+++ b/wordle game/wordle_project/word/beyond.xlsx
@@ -1,30 +1,224 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="15855" windowHeight="7425"/>
+    <workbookView xWindow="510" yWindow="555" windowWidth="27735" windowHeight="13950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>album</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>melon</t>
+  </si>
+  <si>
+    <t>peach</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>scarf</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>steak</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>snack</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>skate</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>noisy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +262,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -355,18 +554,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/wordle game/wordle_project/word/beyond.xlsx
+++ b/wordle game/wordle_project/word/beyond.xlsx
@@ -1,48 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="15855" windowHeight="7425"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>album</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -61,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -355,23 +408,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>album</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tiger</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lemon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>peach</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>eight</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>plane</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>bread</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>juice</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pizza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>salad</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>river</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>chair</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>jeans</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>pants</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>shirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>shoes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>skirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>socks</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sorry</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>tired</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>boots</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>scarf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>curry</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>steak</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>stand</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>knife</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>spoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>dance</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>skate</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>party</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>piano</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>clean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>dirty</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>quiet</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wordle game/wordle_project/word/beyond.xlsx
+++ b/wordle game/wordle_project/word/beyond.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,471 +434,324 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>album</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>award</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>solve</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>apply</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>delay</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lemon</t>
+          <t>guest</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>melon</t>
+          <t>route</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>peach</t>
+          <t>share</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>waste</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>roast</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>sauce</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>slice</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>steam</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>weigh</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>wheat</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>cruel</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>silly</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>loose</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>quiet</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>quite</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>juice</t>
+          <t>raise</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>entry</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>extra</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mouth</t>
+          <t>input</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>beach</t>
+          <t>owner</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>cough</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>dizzy</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>fever</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>joint</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>pulse</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>wound</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zebra</t>
+          <t>labor</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jeans</t>
+          <t>value</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>claim</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>shirt</t>
+          <t>clerk</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>shoes</t>
+          <t>order</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>skirt</t>
+          <t>trend</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>socks</t>
+          <t>score</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>argue</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>civil</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sorry</t>
+          <t>mayor</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>tired</t>
+          <t>unite</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>boots</t>
+          <t>above</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>scarf</t>
+          <t>below</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>curry</t>
+          <t>until</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>steak</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>stand</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>knife</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>spoon</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>snack</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>dance</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>skate</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>party</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>piano</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>dirty</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>quiet</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>noisy</t>
+          <t>while</t>
         </is>
       </c>
     </row>
